--- a/Dataset/OECD_Well_Being.xlsx
+++ b/Dataset/OECD_Well_Being.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\ams_final_project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36316E5-C545-4FAA-ACF6-8ACE4EDC4833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9479B180-82C0-4497-A4AD-097B3CAA542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{014C39B5-CEB4-4660-92C0-723EBE100ADB}"/>
   </bookViews>
@@ -2959,7 +2959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2975,6 +2975,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3135,7 +3141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3293,6 +3299,14 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -3631,7 +3645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8409F42-840C-4D17-B651-08B16F1F954F}">
   <dimension ref="A1:AB448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3663,16 +3679,16 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="42" t="s">
         <v>936</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="41" t="s">
         <v>937</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="41" t="s">
         <v>938</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="41" t="s">
         <v>939</v>
       </c>
       <c r="H1" s="27" t="s">
@@ -3681,25 +3697,25 @@
       <c r="I1" s="27" t="s">
         <v>941</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="41" t="s">
         <v>942</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="42" t="s">
         <v>943</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>944</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="41" t="s">
         <v>945</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="42" t="s">
         <v>946</v>
       </c>
       <c r="Q1" s="28" t="s">
